--- a/Code/Results/Cases/Case_3_184/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_184/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.036706783920818</v>
+        <v>1.066553863589701</v>
       </c>
       <c r="D2">
-        <v>1.049311333675294</v>
+        <v>1.067738104166037</v>
       </c>
       <c r="E2">
-        <v>1.047003943109449</v>
+        <v>1.071153619569611</v>
       </c>
       <c r="F2">
-        <v>1.055688507293278</v>
+        <v>1.080852740821386</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058382849234594</v>
+        <v>1.052233023249721</v>
       </c>
       <c r="J2">
-        <v>1.057842413780821</v>
+        <v>1.071503274683289</v>
       </c>
       <c r="K2">
-        <v>1.060123910853009</v>
+        <v>1.070445162377491</v>
       </c>
       <c r="L2">
-        <v>1.057845090540214</v>
+        <v>1.07385155035598</v>
       </c>
       <c r="M2">
-        <v>1.06642292922514</v>
+        <v>1.083525091945799</v>
       </c>
       <c r="N2">
-        <v>1.05934467134461</v>
+        <v>1.073024932236483</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.042218371613253</v>
+        <v>1.067706599063331</v>
       </c>
       <c r="D3">
-        <v>1.053532246793039</v>
+        <v>1.068640652648386</v>
       </c>
       <c r="E3">
-        <v>1.05165326173261</v>
+        <v>1.072172123426892</v>
       </c>
       <c r="F3">
-        <v>1.060587360443024</v>
+        <v>1.08193232469576</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.060258387482398</v>
+        <v>1.052565551092424</v>
       </c>
       <c r="J3">
-        <v>1.061620739067936</v>
+        <v>1.072311083910006</v>
       </c>
       <c r="K3">
-        <v>1.063523098059046</v>
+        <v>1.071163338258711</v>
       </c>
       <c r="L3">
-        <v>1.061665283455157</v>
+        <v>1.074686053911982</v>
       </c>
       <c r="M3">
-        <v>1.070499545365171</v>
+        <v>1.084422377585229</v>
       </c>
       <c r="N3">
-        <v>1.063128362287014</v>
+        <v>1.073833888644959</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.045704768201146</v>
+        <v>1.068452645660686</v>
       </c>
       <c r="D4">
-        <v>1.056205335546278</v>
+        <v>1.069224768824274</v>
       </c>
       <c r="E4">
-        <v>1.054599759323558</v>
+        <v>1.072831599501723</v>
       </c>
       <c r="F4">
-        <v>1.063692644476664</v>
+        <v>1.082631444441376</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061435752699991</v>
+        <v>1.052779594632019</v>
       </c>
       <c r="J4">
-        <v>1.064007439536262</v>
+        <v>1.072833354482821</v>
       </c>
       <c r="K4">
-        <v>1.065669627386345</v>
+        <v>1.071627516663699</v>
       </c>
       <c r="L4">
-        <v>1.064081017686974</v>
+        <v>1.075225855500461</v>
       </c>
       <c r="M4">
-        <v>1.073078641798418</v>
+        <v>1.085002934186662</v>
       </c>
       <c r="N4">
-        <v>1.065518452143762</v>
+        <v>1.074356900901892</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.047152092183129</v>
+        <v>1.068766320148599</v>
       </c>
       <c r="D5">
-        <v>1.05731571535444</v>
+        <v>1.069470356717789</v>
       </c>
       <c r="E5">
-        <v>1.055824228445533</v>
+        <v>1.073108947586359</v>
       </c>
       <c r="F5">
-        <v>1.064983255931649</v>
+        <v>1.08292548765906</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061922313988524</v>
+        <v>1.052869309412432</v>
       </c>
       <c r="J5">
-        <v>1.064997406850474</v>
+        <v>1.073052812792247</v>
       </c>
       <c r="K5">
-        <v>1.066559802491246</v>
+        <v>1.071822530541113</v>
       </c>
       <c r="L5">
-        <v>1.065083645183137</v>
+        <v>1.075452745519223</v>
       </c>
       <c r="M5">
-        <v>1.074149360494025</v>
+        <v>1.085246988896202</v>
       </c>
       <c r="N5">
-        <v>1.066509825325111</v>
+        <v>1.07457667086729</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.047394049830159</v>
+        <v>1.068818989635191</v>
       </c>
       <c r="D6">
-        <v>1.057501382820694</v>
+        <v>1.069511593493945</v>
       </c>
       <c r="E6">
-        <v>1.056029003674235</v>
+        <v>1.073155521668049</v>
       </c>
       <c r="F6">
-        <v>1.065199101730514</v>
+        <v>1.082974866624056</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062003524610079</v>
+        <v>1.052884357137763</v>
       </c>
       <c r="J6">
-        <v>1.06516285526021</v>
+        <v>1.073089654699642</v>
       </c>
       <c r="K6">
-        <v>1.066708562651933</v>
+        <v>1.071855266798665</v>
       </c>
       <c r="L6">
-        <v>1.065251245643464</v>
+        <v>1.075490838856918</v>
       </c>
       <c r="M6">
-        <v>1.074328360140117</v>
+        <v>1.085287966094544</v>
       </c>
       <c r="N6">
-        <v>1.066675508690567</v>
+        <v>1.074613565094419</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.045724178536982</v>
+        <v>1.06845683685028</v>
       </c>
       <c r="D7">
-        <v>1.056220224418138</v>
+        <v>1.069228050281901</v>
       </c>
       <c r="E7">
-        <v>1.054616175935579</v>
+        <v>1.07283530503044</v>
       </c>
       <c r="F7">
-        <v>1.063709947250118</v>
+        <v>1.082635372937574</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061442286825894</v>
+        <v>1.052780794462754</v>
       </c>
       <c r="J7">
-        <v>1.064020719527058</v>
+        <v>1.072836287304896</v>
       </c>
       <c r="K7">
-        <v>1.06568156940408</v>
+        <v>1.071630122946585</v>
       </c>
       <c r="L7">
-        <v>1.064094465071834</v>
+        <v>1.075228887383199</v>
       </c>
       <c r="M7">
-        <v>1.07309300129041</v>
+        <v>1.085006195301956</v>
       </c>
       <c r="N7">
-        <v>1.065531750993669</v>
+        <v>1.074359837888911</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.038586497989354</v>
+        <v>1.066943405352074</v>
       </c>
       <c r="D8">
-        <v>1.050750173767022</v>
+        <v>1.068043102413865</v>
       </c>
       <c r="E8">
-        <v>1.048588386976714</v>
+        <v>1.071497737427243</v>
       </c>
       <c r="F8">
-        <v>1.057357855760563</v>
+        <v>1.081217475947299</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059024366950218</v>
+        <v>1.052345635374524</v>
       </c>
       <c r="J8">
-        <v>1.059131671756332</v>
+        <v>1.071776367958851</v>
       </c>
       <c r="K8">
-        <v>1.061283933143515</v>
+        <v>1.070687982908504</v>
       </c>
       <c r="L8">
-        <v>1.059148088952404</v>
+        <v>1.074133611627391</v>
       </c>
       <c r="M8">
-        <v>1.067813133869889</v>
+        <v>1.083828343612515</v>
       </c>
       <c r="N8">
-        <v>1.060635760214326</v>
+        <v>1.07329841333582</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.025358620210508</v>
+        <v>1.064277661795934</v>
       </c>
       <c r="D9">
-        <v>1.040640723277119</v>
+        <v>1.06595589831709</v>
       </c>
       <c r="E9">
-        <v>1.037464277114064</v>
+        <v>1.069144112313488</v>
       </c>
       <c r="F9">
-        <v>1.045640334474638</v>
+        <v>1.07872322502271</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054473133205077</v>
+        <v>1.051570218521204</v>
       </c>
       <c r="J9">
-        <v>1.050046618092424</v>
+        <v>1.069905308541703</v>
       </c>
       <c r="K9">
-        <v>1.053107133551937</v>
+        <v>1.069023755905249</v>
       </c>
       <c r="L9">
-        <v>1.049977419667415</v>
+        <v>1.072202229888017</v>
       </c>
       <c r="M9">
-        <v>1.058033918906584</v>
+        <v>1.081752455756646</v>
       </c>
       <c r="N9">
-        <v>1.051537804732145</v>
+        <v>1.071424696799687</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.016045523164946</v>
+        <v>1.062501205068692</v>
       </c>
       <c r="D10">
-        <v>1.033546562456199</v>
+        <v>1.064564989757302</v>
       </c>
       <c r="E10">
-        <v>1.029668093318873</v>
+        <v>1.067577272681671</v>
       </c>
       <c r="F10">
-        <v>1.037431639515813</v>
+        <v>1.077063255891244</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051223955905233</v>
+        <v>1.05104748191494</v>
       </c>
       <c r="J10">
-        <v>1.043636678085747</v>
+        <v>1.068655673950294</v>
       </c>
       <c r="K10">
-        <v>1.047335435357674</v>
+        <v>1.067911540227503</v>
       </c>
       <c r="L10">
-        <v>1.043521574839162</v>
+        <v>1.070913717578419</v>
       </c>
       <c r="M10">
-        <v>1.051156416558408</v>
+        <v>1.080368282341687</v>
       </c>
       <c r="N10">
-        <v>1.045118761875429</v>
+        <v>1.070173287583823</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.011881404676018</v>
+        <v>1.061732136266216</v>
       </c>
       <c r="D11">
-        <v>1.03038122556178</v>
+        <v>1.063962844397286</v>
       </c>
       <c r="E11">
-        <v>1.026191675836433</v>
+        <v>1.066899344680956</v>
       </c>
       <c r="F11">
-        <v>1.033772064532414</v>
+        <v>1.076345148887813</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049761173204882</v>
+        <v>1.050819756391215</v>
       </c>
       <c r="J11">
-        <v>1.040768122530836</v>
+        <v>1.068114028509633</v>
       </c>
       <c r="K11">
-        <v>1.044752072443824</v>
+        <v>1.067429289140665</v>
       </c>
       <c r="L11">
-        <v>1.040636000123027</v>
+        <v>1.070355556074504</v>
       </c>
       <c r="M11">
-        <v>1.048084006159613</v>
+        <v>1.079768859279033</v>
       </c>
       <c r="N11">
-        <v>1.042246132642602</v>
+        <v>1.069630872944508</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.01031358471825</v>
+        <v>1.061446491173447</v>
       </c>
       <c r="D12">
-        <v>1.029190550715455</v>
+        <v>1.063739199841733</v>
       </c>
       <c r="E12">
-        <v>1.024884288776795</v>
+        <v>1.066647610526468</v>
       </c>
       <c r="F12">
-        <v>1.032395913922106</v>
+        <v>1.076078512479895</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049208983172714</v>
+        <v>1.050734961942458</v>
       </c>
       <c r="J12">
-        <v>1.039687779288401</v>
+        <v>1.067912754939413</v>
       </c>
       <c r="K12">
-        <v>1.043779088730378</v>
+        <v>1.067250061066991</v>
       </c>
       <c r="L12">
-        <v>1.039549784596765</v>
+        <v>1.070148195624924</v>
       </c>
       <c r="M12">
-        <v>1.046927708829703</v>
+        <v>1.079546196562466</v>
       </c>
       <c r="N12">
-        <v>1.041164255188846</v>
+        <v>1.069429313542732</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.010650863940356</v>
+        <v>1.061507762068052</v>
       </c>
       <c r="D13">
-        <v>1.029446644921171</v>
+        <v>1.063787171497566</v>
       </c>
       <c r="E13">
-        <v>1.025165472416251</v>
+        <v>1.066701604808842</v>
       </c>
       <c r="F13">
-        <v>1.032691881472714</v>
+        <v>1.076135702350224</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049327837881302</v>
+        <v>1.050753160011424</v>
       </c>
       <c r="J13">
-        <v>1.039920202464735</v>
+        <v>1.06795593253569</v>
       </c>
       <c r="K13">
-        <v>1.043988416682927</v>
+        <v>1.067288510560498</v>
       </c>
       <c r="L13">
-        <v>1.039783446717318</v>
+        <v>1.070192676707171</v>
       </c>
       <c r="M13">
-        <v>1.047176435363775</v>
+        <v>1.079593958941354</v>
       </c>
       <c r="N13">
-        <v>1.04139700843275</v>
+        <v>1.069472552456148</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.0117522463121</v>
+        <v>1.061708524325127</v>
       </c>
       <c r="D14">
-        <v>1.030283113863811</v>
+        <v>1.063944357480529</v>
       </c>
       <c r="E14">
-        <v>1.026083940982537</v>
+        <v>1.066878534657319</v>
       </c>
       <c r="F14">
-        <v>1.033658660865416</v>
+        <v>1.076323106590233</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049715712249158</v>
+        <v>1.050812751480254</v>
       </c>
       <c r="J14">
-        <v>1.040679128863166</v>
+        <v>1.068097392855447</v>
       </c>
       <c r="K14">
-        <v>1.044671923444647</v>
+        <v>1.067414476103898</v>
       </c>
       <c r="L14">
-        <v>1.040546511759801</v>
+        <v>1.070338416298749</v>
       </c>
       <c r="M14">
-        <v>1.047988739002861</v>
+        <v>1.07975045412107</v>
       </c>
       <c r="N14">
-        <v>1.042157012593716</v>
+        <v>1.069614213665785</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.012428009291504</v>
+        <v>1.061832223369714</v>
       </c>
       <c r="D15">
-        <v>1.030796484423215</v>
+        <v>1.064041207473477</v>
       </c>
       <c r="E15">
-        <v>1.026647677081366</v>
+        <v>1.066987557370471</v>
       </c>
       <c r="F15">
-        <v>1.034252064501387</v>
+        <v>1.076438585838582</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04995350785841</v>
+        <v>1.050849440310343</v>
       </c>
       <c r="J15">
-        <v>1.041144735853503</v>
+        <v>1.068184540305053</v>
       </c>
       <c r="K15">
-        <v>1.045091254035895</v>
+        <v>1.067492074566953</v>
       </c>
       <c r="L15">
-        <v>1.041014728888682</v>
+        <v>1.070428206702333</v>
       </c>
       <c r="M15">
-        <v>1.048487201834075</v>
+        <v>1.079846874593457</v>
       </c>
       <c r="N15">
-        <v>1.042623280799385</v>
+        <v>1.069701484874766</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.01631900106598</v>
+        <v>1.062552248676424</v>
       </c>
       <c r="D16">
-        <v>1.033754591833762</v>
+        <v>1.064604954836024</v>
       </c>
       <c r="E16">
-        <v>1.029896610464713</v>
+        <v>1.067622275549515</v>
       </c>
       <c r="F16">
-        <v>1.037672212529489</v>
+        <v>1.077110928395892</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051319821019668</v>
+        <v>1.051062566280474</v>
       </c>
       <c r="J16">
-        <v>1.043825023261309</v>
+        <v>1.068691609649342</v>
       </c>
       <c r="K16">
-        <v>1.047505047583087</v>
+        <v>1.067943531836963</v>
       </c>
       <c r="L16">
-        <v>1.043711111394888</v>
+        <v>1.070950756108582</v>
       </c>
       <c r="M16">
-        <v>1.051358259501326</v>
+        <v>1.080408062645753</v>
       </c>
       <c r="N16">
-        <v>1.045307374522744</v>
+        <v>1.070209274315685</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.018723613342685</v>
+        <v>1.063003940604004</v>
       </c>
       <c r="D17">
-        <v>1.035584499620668</v>
+        <v>1.064958612673301</v>
       </c>
       <c r="E17">
-        <v>1.031906979355477</v>
+        <v>1.068020557601454</v>
       </c>
       <c r="F17">
-        <v>1.039788731662138</v>
+        <v>1.077532850483434</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052161607057893</v>
+        <v>1.051195885767508</v>
       </c>
       <c r="J17">
-        <v>1.045480810346316</v>
+        <v>1.069009534550417</v>
       </c>
       <c r="K17">
-        <v>1.04899610178124</v>
+        <v>1.068226543696577</v>
       </c>
       <c r="L17">
-        <v>1.045377773143503</v>
+        <v>1.071278476524045</v>
       </c>
       <c r="M17">
-        <v>1.053133321517462</v>
+        <v>1.080760063006025</v>
       </c>
       <c r="N17">
-        <v>1.046965513015333</v>
+        <v>1.070527650706586</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.020113591932143</v>
+        <v>1.063267419278342</v>
       </c>
       <c r="D18">
-        <v>1.036642893688718</v>
+        <v>1.065164907586602</v>
       </c>
       <c r="E18">
-        <v>1.033069955211897</v>
+        <v>1.0682529193474</v>
       </c>
       <c r="F18">
-        <v>1.041013188871883</v>
+        <v>1.077779015216554</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052647248811516</v>
+        <v>1.051273515906358</v>
       </c>
       <c r="J18">
-        <v>1.046437690703575</v>
+        <v>1.069194922167942</v>
       </c>
       <c r="K18">
-        <v>1.049857740990763</v>
+        <v>1.06839155660585</v>
       </c>
       <c r="L18">
-        <v>1.046341270796572</v>
+        <v>1.071469608398147</v>
       </c>
       <c r="M18">
-        <v>1.05415963975319</v>
+        <v>1.080965372429097</v>
       </c>
       <c r="N18">
-        <v>1.047923752252455</v>
+        <v>1.070713301595792</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.020585441500724</v>
+        <v>1.063357261173949</v>
       </c>
       <c r="D19">
-        <v>1.03700228439653</v>
+        <v>1.065235250906041</v>
       </c>
       <c r="E19">
-        <v>1.033464893378684</v>
+        <v>1.068332157281145</v>
       </c>
       <c r="F19">
-        <v>1.04142901835323</v>
+        <v>1.077862962013681</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052811944497533</v>
+        <v>1.051299963246474</v>
       </c>
       <c r="J19">
-        <v>1.046762475472216</v>
+        <v>1.069258125645084</v>
       </c>
       <c r="K19">
-        <v>1.050150191387622</v>
+        <v>1.068447811044555</v>
       </c>
       <c r="L19">
-        <v>1.046668357842098</v>
+        <v>1.071534775722051</v>
       </c>
       <c r="M19">
-        <v>1.054508079145738</v>
+        <v>1.081035376553684</v>
       </c>
       <c r="N19">
-        <v>1.048248998252721</v>
+        <v>1.070776594829121</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.018466932781535</v>
+        <v>1.062955476851225</v>
       </c>
       <c r="D20">
-        <v>1.035389100739985</v>
+        <v>1.064920667264552</v>
       </c>
       <c r="E20">
-        <v>1.031692289517347</v>
+        <v>1.067977820478033</v>
       </c>
       <c r="F20">
-        <v>1.039562698169571</v>
+        <v>1.077487575544011</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052071848725401</v>
+        <v>1.051181595591889</v>
       </c>
       <c r="J20">
-        <v>1.04530408788543</v>
+        <v>1.068975429660566</v>
       </c>
       <c r="K20">
-        <v>1.048836965529998</v>
+        <v>1.068196185732871</v>
       </c>
       <c r="L20">
-        <v>1.04519985542521</v>
+        <v>1.071243317492103</v>
       </c>
       <c r="M20">
-        <v>1.052943815924837</v>
+        <v>1.080722297365681</v>
       </c>
       <c r="N20">
-        <v>1.046788539588282</v>
+        <v>1.07049349738388</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.01142850982304</v>
+        <v>1.061649404264505</v>
       </c>
       <c r="D21">
-        <v>1.030037214104498</v>
+        <v>1.063898069601242</v>
       </c>
       <c r="E21">
-        <v>1.025813927298675</v>
+        <v>1.066826431061867</v>
       </c>
       <c r="F21">
-        <v>1.033374441431649</v>
+        <v>1.076267917939926</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049601740984621</v>
+        <v>1.050795208994763</v>
       </c>
       <c r="J21">
-        <v>1.040456060720653</v>
+        <v>1.06805573859314</v>
       </c>
       <c r="K21">
-        <v>1.044471024287775</v>
+        <v>1.06737738511328</v>
       </c>
       <c r="L21">
-        <v>1.040322212312946</v>
+        <v>1.070295500573795</v>
       </c>
       <c r="M21">
-        <v>1.047749959228541</v>
+        <v>1.079704370477644</v>
       </c>
       <c r="N21">
-        <v>1.041933627668855</v>
+        <v>1.069572500249647</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.006880462886151</v>
+        <v>1.060828347335986</v>
       </c>
       <c r="D22">
-        <v>1.026585413513922</v>
+        <v>1.063255231997178</v>
       </c>
       <c r="E22">
-        <v>1.022024327708559</v>
+        <v>1.066102960846398</v>
       </c>
       <c r="F22">
-        <v>1.029385744010583</v>
+        <v>1.075501652179592</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047997244383041</v>
+        <v>1.050551074405516</v>
       </c>
       <c r="J22">
-        <v>1.037321608042632</v>
+        <v>1.067477015747591</v>
       </c>
       <c r="K22">
-        <v>1.041647986222747</v>
+        <v>1.066862002381864</v>
       </c>
       <c r="L22">
-        <v>1.0371717504664</v>
+        <v>1.069699371204555</v>
       </c>
       <c r="M22">
-        <v>1.044396707336739</v>
+        <v>1.079064299711193</v>
       </c>
       <c r="N22">
-        <v>1.038794723708504</v>
+        <v>1.068992955551278</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.009303573928387</v>
+        <v>1.061263593858578</v>
       </c>
       <c r="D23">
-        <v>1.028423823976793</v>
+        <v>1.063596001958772</v>
       </c>
       <c r="E23">
-        <v>1.024042489148786</v>
+        <v>1.066486443134703</v>
       </c>
       <c r="F23">
-        <v>1.031509871711713</v>
+        <v>1.075907809129143</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048852856273815</v>
+        <v>1.050680608377407</v>
       </c>
       <c r="J23">
-        <v>1.038991728251128</v>
+        <v>1.067783852982256</v>
       </c>
       <c r="K23">
-        <v>1.043152196482771</v>
+        <v>1.067135270654552</v>
       </c>
       <c r="L23">
-        <v>1.038850102637168</v>
+        <v>1.070015409644183</v>
       </c>
       <c r="M23">
-        <v>1.04618295444526</v>
+        <v>1.079403619083273</v>
       </c>
       <c r="N23">
-        <v>1.040467215679261</v>
+        <v>1.06930022853001</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.018582954490888</v>
+        <v>1.062977375490128</v>
       </c>
       <c r="D24">
-        <v>1.035477420708613</v>
+        <v>1.06493781312334</v>
       </c>
       <c r="E24">
-        <v>1.031789328327787</v>
+        <v>1.067997131388102</v>
       </c>
       <c r="F24">
-        <v>1.039664864027659</v>
+        <v>1.077508033140149</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05211242317601</v>
+        <v>1.051188053117563</v>
       </c>
       <c r="J24">
-        <v>1.045383968636775</v>
+        <v>1.068990840354586</v>
       </c>
       <c r="K24">
-        <v>1.048908897227001</v>
+        <v>1.068209903384799</v>
       </c>
       <c r="L24">
-        <v>1.045280275415833</v>
+        <v>1.071259204412726</v>
       </c>
       <c r="M24">
-        <v>1.053029473233087</v>
+        <v>1.080739362052646</v>
       </c>
       <c r="N24">
-        <v>1.046868533779456</v>
+        <v>1.070508929962852</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.028861036908036</v>
+        <v>1.064966692760567</v>
       </c>
       <c r="D25">
-        <v>1.043313773066997</v>
+        <v>1.066495392182126</v>
       </c>
       <c r="E25">
-        <v>1.040403824890981</v>
+        <v>1.069752185210875</v>
       </c>
       <c r="F25">
-        <v>1.04873610584747</v>
+        <v>1.079367543545352</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055686101422455</v>
+        <v>1.051771703071795</v>
       </c>
       <c r="J25">
-        <v>1.052454675750989</v>
+        <v>1.070389420012588</v>
       </c>
       <c r="K25">
-        <v>1.055274949988093</v>
+        <v>1.069454479541153</v>
       </c>
       <c r="L25">
-        <v>1.052405706519175</v>
+        <v>1.072701700863774</v>
       </c>
       <c r="M25">
-        <v>1.060622193996022</v>
+        <v>1.082289165954997</v>
       </c>
       <c r="N25">
-        <v>1.053949282108794</v>
+        <v>1.071909495764389</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_184/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_184/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.066553863589701</v>
+        <v>1.03670678392082</v>
       </c>
       <c r="D2">
-        <v>1.067738104166037</v>
+        <v>1.049311333675295</v>
       </c>
       <c r="E2">
-        <v>1.071153619569611</v>
+        <v>1.04700394310945</v>
       </c>
       <c r="F2">
-        <v>1.080852740821386</v>
+        <v>1.05568850729328</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052233023249721</v>
+        <v>1.058382849234594</v>
       </c>
       <c r="J2">
-        <v>1.071503274683289</v>
+        <v>1.057842413780822</v>
       </c>
       <c r="K2">
-        <v>1.070445162377491</v>
+        <v>1.06012391085301</v>
       </c>
       <c r="L2">
-        <v>1.07385155035598</v>
+        <v>1.057845090540216</v>
       </c>
       <c r="M2">
-        <v>1.083525091945799</v>
+        <v>1.066422929225142</v>
       </c>
       <c r="N2">
-        <v>1.073024932236483</v>
+        <v>1.059344671344612</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.067706599063331</v>
+        <v>1.042218371613251</v>
       </c>
       <c r="D3">
-        <v>1.068640652648386</v>
+        <v>1.053532246793038</v>
       </c>
       <c r="E3">
-        <v>1.072172123426892</v>
+        <v>1.051653261732609</v>
       </c>
       <c r="F3">
-        <v>1.08193232469576</v>
+        <v>1.060587360443023</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052565551092424</v>
+        <v>1.060258387482397</v>
       </c>
       <c r="J3">
-        <v>1.072311083910006</v>
+        <v>1.061620739067935</v>
       </c>
       <c r="K3">
-        <v>1.071163338258711</v>
+        <v>1.063523098059045</v>
       </c>
       <c r="L3">
-        <v>1.074686053911982</v>
+        <v>1.061665283455156</v>
       </c>
       <c r="M3">
-        <v>1.084422377585229</v>
+        <v>1.07049954536517</v>
       </c>
       <c r="N3">
-        <v>1.073833888644959</v>
+        <v>1.063128362287012</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.068452645660686</v>
+        <v>1.045704768201145</v>
       </c>
       <c r="D4">
-        <v>1.069224768824274</v>
+        <v>1.056205335546277</v>
       </c>
       <c r="E4">
-        <v>1.072831599501723</v>
+        <v>1.054599759323557</v>
       </c>
       <c r="F4">
-        <v>1.082631444441376</v>
+        <v>1.063692644476663</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052779594632019</v>
+        <v>1.061435752699991</v>
       </c>
       <c r="J4">
-        <v>1.072833354482821</v>
+        <v>1.064007439536261</v>
       </c>
       <c r="K4">
-        <v>1.071627516663699</v>
+        <v>1.065669627386344</v>
       </c>
       <c r="L4">
-        <v>1.075225855500461</v>
+        <v>1.064081017686973</v>
       </c>
       <c r="M4">
-        <v>1.085002934186662</v>
+        <v>1.073078641798417</v>
       </c>
       <c r="N4">
-        <v>1.074356900901892</v>
+        <v>1.065518452143762</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.068766320148599</v>
+        <v>1.047152092183128</v>
       </c>
       <c r="D5">
-        <v>1.069470356717789</v>
+        <v>1.057315715354439</v>
       </c>
       <c r="E5">
-        <v>1.073108947586359</v>
+        <v>1.055824228445532</v>
       </c>
       <c r="F5">
-        <v>1.08292548765906</v>
+        <v>1.064983255931648</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052869309412432</v>
+        <v>1.061922313988523</v>
       </c>
       <c r="J5">
-        <v>1.073052812792247</v>
+        <v>1.064997406850473</v>
       </c>
       <c r="K5">
-        <v>1.071822530541113</v>
+        <v>1.066559802491245</v>
       </c>
       <c r="L5">
-        <v>1.075452745519223</v>
+        <v>1.065083645183136</v>
       </c>
       <c r="M5">
-        <v>1.085246988896202</v>
+        <v>1.074149360494024</v>
       </c>
       <c r="N5">
-        <v>1.07457667086729</v>
+        <v>1.06650982532511</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.068818989635191</v>
+        <v>1.047394049830161</v>
       </c>
       <c r="D6">
-        <v>1.069511593493945</v>
+        <v>1.057501382820696</v>
       </c>
       <c r="E6">
-        <v>1.073155521668049</v>
+        <v>1.056029003674237</v>
       </c>
       <c r="F6">
-        <v>1.082974866624056</v>
+        <v>1.065199101730517</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052884357137763</v>
+        <v>1.06200352461008</v>
       </c>
       <c r="J6">
-        <v>1.073089654699642</v>
+        <v>1.065162855260212</v>
       </c>
       <c r="K6">
-        <v>1.071855266798665</v>
+        <v>1.066708562651935</v>
       </c>
       <c r="L6">
-        <v>1.075490838856918</v>
+        <v>1.065251245643466</v>
       </c>
       <c r="M6">
-        <v>1.085287966094544</v>
+        <v>1.074328360140119</v>
       </c>
       <c r="N6">
-        <v>1.074613565094419</v>
+        <v>1.066675508690569</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.06845683685028</v>
+        <v>1.045724178536983</v>
       </c>
       <c r="D7">
-        <v>1.069228050281901</v>
+        <v>1.056220224418138</v>
       </c>
       <c r="E7">
-        <v>1.07283530503044</v>
+        <v>1.054616175935579</v>
       </c>
       <c r="F7">
-        <v>1.082635372937574</v>
+        <v>1.063709947250117</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052780794462754</v>
+        <v>1.061442286825894</v>
       </c>
       <c r="J7">
-        <v>1.072836287304896</v>
+        <v>1.064020719527058</v>
       </c>
       <c r="K7">
-        <v>1.071630122946585</v>
+        <v>1.06568156940408</v>
       </c>
       <c r="L7">
-        <v>1.075228887383199</v>
+        <v>1.064094465071834</v>
       </c>
       <c r="M7">
-        <v>1.085006195301956</v>
+        <v>1.07309300129041</v>
       </c>
       <c r="N7">
-        <v>1.074359837888911</v>
+        <v>1.065531750993669</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.066943405352074</v>
+        <v>1.038586497989353</v>
       </c>
       <c r="D8">
-        <v>1.068043102413865</v>
+        <v>1.050750173767021</v>
       </c>
       <c r="E8">
-        <v>1.071497737427243</v>
+        <v>1.048588386976713</v>
       </c>
       <c r="F8">
-        <v>1.081217475947299</v>
+        <v>1.057357855760562</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052345635374524</v>
+        <v>1.059024366950217</v>
       </c>
       <c r="J8">
-        <v>1.071776367958851</v>
+        <v>1.059131671756331</v>
       </c>
       <c r="K8">
-        <v>1.070687982908504</v>
+        <v>1.061283933143514</v>
       </c>
       <c r="L8">
-        <v>1.074133611627391</v>
+        <v>1.059148088952403</v>
       </c>
       <c r="M8">
-        <v>1.083828343612515</v>
+        <v>1.067813133869889</v>
       </c>
       <c r="N8">
-        <v>1.07329841333582</v>
+        <v>1.060635760214325</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.064277661795934</v>
+        <v>1.025358620210509</v>
       </c>
       <c r="D9">
-        <v>1.06595589831709</v>
+        <v>1.04064072327712</v>
       </c>
       <c r="E9">
-        <v>1.069144112313488</v>
+        <v>1.037464277114065</v>
       </c>
       <c r="F9">
-        <v>1.07872322502271</v>
+        <v>1.045640334474639</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051570218521204</v>
+        <v>1.054473133205077</v>
       </c>
       <c r="J9">
-        <v>1.069905308541703</v>
+        <v>1.050046618092425</v>
       </c>
       <c r="K9">
-        <v>1.069023755905249</v>
+        <v>1.053107133551938</v>
       </c>
       <c r="L9">
-        <v>1.072202229888017</v>
+        <v>1.049977419667416</v>
       </c>
       <c r="M9">
-        <v>1.081752455756646</v>
+        <v>1.058033918906586</v>
       </c>
       <c r="N9">
-        <v>1.071424696799687</v>
+        <v>1.051537804732146</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.062501205068692</v>
+        <v>1.016045523164945</v>
       </c>
       <c r="D10">
-        <v>1.064564989757302</v>
+        <v>1.033546562456199</v>
       </c>
       <c r="E10">
-        <v>1.067577272681671</v>
+        <v>1.029668093318872</v>
       </c>
       <c r="F10">
-        <v>1.077063255891244</v>
+        <v>1.037431639515812</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05104748191494</v>
+        <v>1.051223955905232</v>
       </c>
       <c r="J10">
-        <v>1.068655673950294</v>
+        <v>1.043636678085746</v>
       </c>
       <c r="K10">
-        <v>1.067911540227503</v>
+        <v>1.047335435357674</v>
       </c>
       <c r="L10">
-        <v>1.070913717578419</v>
+        <v>1.043521574839162</v>
       </c>
       <c r="M10">
-        <v>1.080368282341687</v>
+        <v>1.051156416558408</v>
       </c>
       <c r="N10">
-        <v>1.070173287583823</v>
+        <v>1.045118761875428</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.061732136266216</v>
+        <v>1.011881404676018</v>
       </c>
       <c r="D11">
-        <v>1.063962844397286</v>
+        <v>1.03038122556178</v>
       </c>
       <c r="E11">
-        <v>1.066899344680956</v>
+        <v>1.026191675836433</v>
       </c>
       <c r="F11">
-        <v>1.076345148887813</v>
+        <v>1.033772064532414</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050819756391215</v>
+        <v>1.049761173204882</v>
       </c>
       <c r="J11">
-        <v>1.068114028509633</v>
+        <v>1.040768122530836</v>
       </c>
       <c r="K11">
-        <v>1.067429289140665</v>
+        <v>1.044752072443824</v>
       </c>
       <c r="L11">
-        <v>1.070355556074504</v>
+        <v>1.040636000123027</v>
       </c>
       <c r="M11">
-        <v>1.079768859279033</v>
+        <v>1.048084006159613</v>
       </c>
       <c r="N11">
-        <v>1.069630872944508</v>
+        <v>1.042246132642602</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.061446491173447</v>
+        <v>1.010313584718249</v>
       </c>
       <c r="D12">
-        <v>1.063739199841733</v>
+        <v>1.029190550715455</v>
       </c>
       <c r="E12">
-        <v>1.066647610526468</v>
+        <v>1.024884288776795</v>
       </c>
       <c r="F12">
-        <v>1.076078512479895</v>
+        <v>1.032395913922106</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050734961942458</v>
+        <v>1.049208983172714</v>
       </c>
       <c r="J12">
-        <v>1.067912754939413</v>
+        <v>1.0396877792884</v>
       </c>
       <c r="K12">
-        <v>1.067250061066991</v>
+        <v>1.043779088730377</v>
       </c>
       <c r="L12">
-        <v>1.070148195624924</v>
+        <v>1.039549784596765</v>
       </c>
       <c r="M12">
-        <v>1.079546196562466</v>
+        <v>1.046927708829703</v>
       </c>
       <c r="N12">
-        <v>1.069429313542732</v>
+        <v>1.041164255188845</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.061507762068052</v>
+        <v>1.010650863940355</v>
       </c>
       <c r="D13">
-        <v>1.063787171497566</v>
+        <v>1.02944664492117</v>
       </c>
       <c r="E13">
-        <v>1.066701604808842</v>
+        <v>1.025165472416251</v>
       </c>
       <c r="F13">
-        <v>1.076135702350224</v>
+        <v>1.032691881472714</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050753160011424</v>
+        <v>1.049327837881302</v>
       </c>
       <c r="J13">
-        <v>1.06795593253569</v>
+        <v>1.039920202464734</v>
       </c>
       <c r="K13">
-        <v>1.067288510560498</v>
+        <v>1.043988416682927</v>
       </c>
       <c r="L13">
-        <v>1.070192676707171</v>
+        <v>1.039783446717317</v>
       </c>
       <c r="M13">
-        <v>1.079593958941354</v>
+        <v>1.047176435363775</v>
       </c>
       <c r="N13">
-        <v>1.069472552456148</v>
+        <v>1.041397008432749</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.061708524325127</v>
+        <v>1.011752246312102</v>
       </c>
       <c r="D14">
-        <v>1.063944357480529</v>
+        <v>1.030283113863813</v>
       </c>
       <c r="E14">
-        <v>1.066878534657319</v>
+        <v>1.026083940982538</v>
       </c>
       <c r="F14">
-        <v>1.076323106590233</v>
+        <v>1.033658660865418</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050812751480254</v>
+        <v>1.049715712249158</v>
       </c>
       <c r="J14">
-        <v>1.068097392855447</v>
+        <v>1.040679128863167</v>
       </c>
       <c r="K14">
-        <v>1.067414476103898</v>
+        <v>1.044671923444649</v>
       </c>
       <c r="L14">
-        <v>1.070338416298749</v>
+        <v>1.040546511759802</v>
       </c>
       <c r="M14">
-        <v>1.07975045412107</v>
+        <v>1.047988739002862</v>
       </c>
       <c r="N14">
-        <v>1.069614213665785</v>
+        <v>1.042157012593717</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.061832223369714</v>
+        <v>1.012428009291504</v>
       </c>
       <c r="D15">
-        <v>1.064041207473477</v>
+        <v>1.030796484423215</v>
       </c>
       <c r="E15">
-        <v>1.066987557370471</v>
+        <v>1.026647677081366</v>
       </c>
       <c r="F15">
-        <v>1.076438585838582</v>
+        <v>1.034252064501386</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050849440310343</v>
+        <v>1.04995350785841</v>
       </c>
       <c r="J15">
-        <v>1.068184540305053</v>
+        <v>1.041144735853502</v>
       </c>
       <c r="K15">
-        <v>1.067492074566953</v>
+        <v>1.045091254035895</v>
       </c>
       <c r="L15">
-        <v>1.070428206702333</v>
+        <v>1.041014728888682</v>
       </c>
       <c r="M15">
-        <v>1.079846874593457</v>
+        <v>1.048487201834074</v>
       </c>
       <c r="N15">
-        <v>1.069701484874766</v>
+        <v>1.042623280799385</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.062552248676424</v>
+        <v>1.016319001065982</v>
       </c>
       <c r="D16">
-        <v>1.064604954836024</v>
+        <v>1.033754591833763</v>
       </c>
       <c r="E16">
-        <v>1.067622275549515</v>
+        <v>1.029896610464715</v>
       </c>
       <c r="F16">
-        <v>1.077110928395892</v>
+        <v>1.037672212529491</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051062566280474</v>
+        <v>1.051319821019669</v>
       </c>
       <c r="J16">
-        <v>1.068691609649342</v>
+        <v>1.043825023261311</v>
       </c>
       <c r="K16">
-        <v>1.067943531836963</v>
+        <v>1.047505047583089</v>
       </c>
       <c r="L16">
-        <v>1.070950756108582</v>
+        <v>1.04371111139489</v>
       </c>
       <c r="M16">
-        <v>1.080408062645753</v>
+        <v>1.051358259501328</v>
       </c>
       <c r="N16">
-        <v>1.070209274315685</v>
+        <v>1.045307374522746</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.063003940604004</v>
+        <v>1.018723613342685</v>
       </c>
       <c r="D17">
-        <v>1.064958612673301</v>
+        <v>1.035584499620669</v>
       </c>
       <c r="E17">
-        <v>1.068020557601454</v>
+        <v>1.031906979355477</v>
       </c>
       <c r="F17">
-        <v>1.077532850483434</v>
+        <v>1.039788731662138</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051195885767508</v>
+        <v>1.052161607057893</v>
       </c>
       <c r="J17">
-        <v>1.069009534550417</v>
+        <v>1.045480810346316</v>
       </c>
       <c r="K17">
-        <v>1.068226543696577</v>
+        <v>1.048996101781241</v>
       </c>
       <c r="L17">
-        <v>1.071278476524045</v>
+        <v>1.045377773143503</v>
       </c>
       <c r="M17">
-        <v>1.080760063006025</v>
+        <v>1.053133321517462</v>
       </c>
       <c r="N17">
-        <v>1.070527650706586</v>
+        <v>1.046965513015333</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.063267419278342</v>
+        <v>1.020113591932142</v>
       </c>
       <c r="D18">
-        <v>1.065164907586602</v>
+        <v>1.036642893688716</v>
       </c>
       <c r="E18">
-        <v>1.0682529193474</v>
+        <v>1.033069955211895</v>
       </c>
       <c r="F18">
-        <v>1.077779015216554</v>
+        <v>1.041013188871882</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051273515906358</v>
+        <v>1.052647248811516</v>
       </c>
       <c r="J18">
-        <v>1.069194922167942</v>
+        <v>1.046437690703573</v>
       </c>
       <c r="K18">
-        <v>1.06839155660585</v>
+        <v>1.049857740990762</v>
       </c>
       <c r="L18">
-        <v>1.071469608398147</v>
+        <v>1.04634127079657</v>
       </c>
       <c r="M18">
-        <v>1.080965372429097</v>
+        <v>1.054159639753188</v>
       </c>
       <c r="N18">
-        <v>1.070713301595792</v>
+        <v>1.047923752252453</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.063357261173949</v>
+        <v>1.020585441500723</v>
       </c>
       <c r="D19">
-        <v>1.065235250906041</v>
+        <v>1.03700228439653</v>
       </c>
       <c r="E19">
-        <v>1.068332157281145</v>
+        <v>1.033464893378684</v>
       </c>
       <c r="F19">
-        <v>1.077862962013681</v>
+        <v>1.041429018353229</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051299963246474</v>
+        <v>1.052811944497532</v>
       </c>
       <c r="J19">
-        <v>1.069258125645084</v>
+        <v>1.046762475472216</v>
       </c>
       <c r="K19">
-        <v>1.068447811044555</v>
+        <v>1.050150191387621</v>
       </c>
       <c r="L19">
-        <v>1.071534775722051</v>
+        <v>1.046668357842097</v>
       </c>
       <c r="M19">
-        <v>1.081035376553684</v>
+        <v>1.054508079145736</v>
       </c>
       <c r="N19">
-        <v>1.070776594829121</v>
+        <v>1.04824899825272</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.062955476851225</v>
+        <v>1.018466932781534</v>
       </c>
       <c r="D20">
-        <v>1.064920667264552</v>
+        <v>1.035389100739984</v>
       </c>
       <c r="E20">
-        <v>1.067977820478033</v>
+        <v>1.031692289517346</v>
       </c>
       <c r="F20">
-        <v>1.077487575544011</v>
+        <v>1.03956269816957</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051181595591889</v>
+        <v>1.0520718487254</v>
       </c>
       <c r="J20">
-        <v>1.068975429660566</v>
+        <v>1.045304087885429</v>
       </c>
       <c r="K20">
-        <v>1.068196185732871</v>
+        <v>1.048836965529997</v>
       </c>
       <c r="L20">
-        <v>1.071243317492103</v>
+        <v>1.045199855425209</v>
       </c>
       <c r="M20">
-        <v>1.080722297365681</v>
+        <v>1.052943815924835</v>
       </c>
       <c r="N20">
-        <v>1.07049349738388</v>
+        <v>1.046788539588281</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.061649404264505</v>
+        <v>1.01142850982304</v>
       </c>
       <c r="D21">
-        <v>1.063898069601242</v>
+        <v>1.030037214104499</v>
       </c>
       <c r="E21">
-        <v>1.066826431061867</v>
+        <v>1.025813927298675</v>
       </c>
       <c r="F21">
-        <v>1.076267917939926</v>
+        <v>1.033374441431649</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050795208994763</v>
+        <v>1.049601740984621</v>
       </c>
       <c r="J21">
-        <v>1.06805573859314</v>
+        <v>1.040456060720653</v>
       </c>
       <c r="K21">
-        <v>1.06737738511328</v>
+        <v>1.044471024287775</v>
       </c>
       <c r="L21">
-        <v>1.070295500573795</v>
+        <v>1.040322212312946</v>
       </c>
       <c r="M21">
-        <v>1.079704370477644</v>
+        <v>1.047749959228542</v>
       </c>
       <c r="N21">
-        <v>1.069572500249647</v>
+        <v>1.041933627668855</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.060828347335986</v>
+        <v>1.00688046288615</v>
       </c>
       <c r="D22">
-        <v>1.063255231997178</v>
+        <v>1.026585413513921</v>
       </c>
       <c r="E22">
-        <v>1.066102960846398</v>
+        <v>1.022024327708558</v>
       </c>
       <c r="F22">
-        <v>1.075501652179592</v>
+        <v>1.029385744010582</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050551074405516</v>
+        <v>1.04799724438304</v>
       </c>
       <c r="J22">
-        <v>1.067477015747591</v>
+        <v>1.037321608042632</v>
       </c>
       <c r="K22">
-        <v>1.066862002381864</v>
+        <v>1.041647986222746</v>
       </c>
       <c r="L22">
-        <v>1.069699371204555</v>
+        <v>1.037171750466399</v>
       </c>
       <c r="M22">
-        <v>1.079064299711193</v>
+        <v>1.044396707336738</v>
       </c>
       <c r="N22">
-        <v>1.068992955551278</v>
+        <v>1.038794723708503</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.061263593858578</v>
+        <v>1.009303573928389</v>
       </c>
       <c r="D23">
-        <v>1.063596001958772</v>
+        <v>1.028423823976795</v>
       </c>
       <c r="E23">
-        <v>1.066486443134703</v>
+        <v>1.024042489148788</v>
       </c>
       <c r="F23">
-        <v>1.075907809129143</v>
+        <v>1.031509871711715</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050680608377407</v>
+        <v>1.048852856273817</v>
       </c>
       <c r="J23">
-        <v>1.067783852982256</v>
+        <v>1.03899172825113</v>
       </c>
       <c r="K23">
-        <v>1.067135270654552</v>
+        <v>1.043152196482773</v>
       </c>
       <c r="L23">
-        <v>1.070015409644183</v>
+        <v>1.03885010263717</v>
       </c>
       <c r="M23">
-        <v>1.079403619083273</v>
+        <v>1.046182954445263</v>
       </c>
       <c r="N23">
-        <v>1.06930022853001</v>
+        <v>1.040467215679264</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.062977375490128</v>
+        <v>1.018582954490886</v>
       </c>
       <c r="D24">
-        <v>1.06493781312334</v>
+        <v>1.035477420708611</v>
       </c>
       <c r="E24">
-        <v>1.067997131388102</v>
+        <v>1.031789328327786</v>
       </c>
       <c r="F24">
-        <v>1.077508033140149</v>
+        <v>1.039664864027657</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051188053117563</v>
+        <v>1.052112423176009</v>
       </c>
       <c r="J24">
-        <v>1.068990840354586</v>
+        <v>1.045383968636773</v>
       </c>
       <c r="K24">
-        <v>1.068209903384799</v>
+        <v>1.048908897227</v>
       </c>
       <c r="L24">
-        <v>1.071259204412726</v>
+        <v>1.045280275415831</v>
       </c>
       <c r="M24">
-        <v>1.080739362052646</v>
+        <v>1.053029473233086</v>
       </c>
       <c r="N24">
-        <v>1.070508929962852</v>
+        <v>1.046868533779455</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.064966692760567</v>
+        <v>1.028861036908036</v>
       </c>
       <c r="D25">
-        <v>1.066495392182126</v>
+        <v>1.043313773066996</v>
       </c>
       <c r="E25">
-        <v>1.069752185210875</v>
+        <v>1.04040382489098</v>
       </c>
       <c r="F25">
-        <v>1.079367543545352</v>
+        <v>1.048736105847469</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051771703071795</v>
+        <v>1.055686101422455</v>
       </c>
       <c r="J25">
-        <v>1.070389420012588</v>
+        <v>1.052454675750989</v>
       </c>
       <c r="K25">
-        <v>1.069454479541153</v>
+        <v>1.055274949988092</v>
       </c>
       <c r="L25">
-        <v>1.072701700863774</v>
+        <v>1.052405706519175</v>
       </c>
       <c r="M25">
-        <v>1.082289165954997</v>
+        <v>1.060622193996021</v>
       </c>
       <c r="N25">
-        <v>1.071909495764389</v>
+        <v>1.053949282108794</v>
       </c>
     </row>
   </sheetData>
